--- a/Definitivo.xlsx
+++ b/Definitivo.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\Programação\Trabalho\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4659BD92-827A-404C-8DAE-6868489E4A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -133,9 +139,6 @@
     <t>2011 janeiro</t>
   </si>
   <si>
-    <t xml:space="preserve">2011 fevereiro </t>
-  </si>
-  <si>
     <t>2011 março</t>
   </si>
   <si>
@@ -536,12 +539,15 @@
   </si>
   <si>
     <t>2022 abril</t>
+  </si>
+  <si>
+    <t>2011 fevereiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
     <numFmt numFmtId="165" formatCode="#,##0%"/>
@@ -568,7 +574,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF53585c"/>
+      <color rgb="FF53585C"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -586,7 +592,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF2c3e50"/>
+      <color rgb="FF2C3E50"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -619,70 +625,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -693,10 +690,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -734,71 +731,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -826,7 +823,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -849,11 +846,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -862,13 +859,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -878,7 +875,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -887,7 +884,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -896,7 +893,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -904,10 +901,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -972,45 +969,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Z151"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="5" max="5" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="9" max="9" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="10" max="10" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="11" max="11" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="12" max="12" style="17" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="13" max="13" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="14" max="14" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="15" max="15" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="16" max="16" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="17" max="17" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="19" max="19" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="20" max="20" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="21" max="21" style="17" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="23" max="23" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="24" max="24" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="25" max="25" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="26" max="26" style="18" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="1" max="1" width="15" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5703125" style="17" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.5703125" style="18" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="17" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.5703125" style="18" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="17" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="13.5703125" style="18" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="13.5703125" style="18" hidden="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1330,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1410,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1490,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1650,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1730,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1810,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1890,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1970,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2050,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2130,409 +2112,409 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="6">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0</v>
-      </c>
-      <c r="V15" s="4">
-        <v>0</v>
-      </c>
-      <c r="W15" s="4">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -2610,649 +2592,649 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4">
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4">
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0</v>
-      </c>
-      <c r="W23" s="4">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4">
-        <v>0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0</v>
-      </c>
-      <c r="V24" s="4">
-        <v>0</v>
-      </c>
-      <c r="W24" s="4">
-        <v>0</v>
-      </c>
-      <c r="X24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
-      </c>
-      <c r="P25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>0</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <v>0</v>
-      </c>
-      <c r="T25" s="4">
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0</v>
-      </c>
-      <c r="V25" s="4">
-        <v>0</v>
-      </c>
-      <c r="W25" s="4">
-        <v>0</v>
-      </c>
-      <c r="X25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0</v>
-      </c>
-      <c r="S26" s="4">
-        <v>0</v>
-      </c>
-      <c r="T26" s="4">
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0</v>
-      </c>
-      <c r="V26" s="4">
-        <v>0</v>
-      </c>
-      <c r="W26" s="4">
-        <v>0</v>
-      </c>
-      <c r="X26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="6">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4">
-        <v>0</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
-      <c r="R27" s="4">
-        <v>0</v>
-      </c>
-      <c r="S27" s="4">
-        <v>0</v>
-      </c>
-      <c r="T27" s="4">
-        <v>0</v>
-      </c>
-      <c r="U27" s="6">
-        <v>0</v>
-      </c>
-      <c r="V27" s="4">
-        <v>0</v>
-      </c>
-      <c r="W27" s="4">
-        <v>0</v>
-      </c>
-      <c r="X27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="6">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
-      <c r="R28" s="4">
-        <v>0</v>
-      </c>
-      <c r="S28" s="4">
-        <v>0</v>
-      </c>
-      <c r="T28" s="4">
-        <v>0</v>
-      </c>
-      <c r="U28" s="6">
-        <v>0</v>
-      </c>
-      <c r="V28" s="4">
-        <v>0</v>
-      </c>
-      <c r="W28" s="4">
-        <v>0</v>
-      </c>
-      <c r="X28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -3330,249 +3312,249 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>1309.33</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-      <c r="T30" s="4">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4">
-        <v>0</v>
-      </c>
-      <c r="V30" s="4">
-        <v>0</v>
-      </c>
-      <c r="W30" s="4">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>1309.33</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4">
-        <v>0</v>
-      </c>
-      <c r="V31" s="4">
-        <v>0</v>
-      </c>
-      <c r="W31" s="4">
-        <v>0</v>
-      </c>
-      <c r="X31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1309.33</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0</v>
-      </c>
-      <c r="O32" s="4">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
-        <v>0</v>
-      </c>
-      <c r="T32" s="4">
-        <v>0</v>
-      </c>
-      <c r="U32" s="4">
-        <v>0</v>
-      </c>
-      <c r="V32" s="4">
-        <v>0</v>
-      </c>
-      <c r="W32" s="4">
-        <v>0</v>
-      </c>
-      <c r="X32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -3650,9 +3632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -3730,9 +3712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -3810,9 +3792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -3890,9 +3872,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -3970,9 +3952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -4050,9 +4032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -4130,89 +4112,89 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <v>0</v>
+      </c>
+      <c r="T40" s="4">
+        <v>0</v>
+      </c>
+      <c r="U40" s="8">
+        <v>164820.20000000001</v>
+      </c>
+      <c r="V40" s="4">
+        <v>0</v>
+      </c>
+      <c r="W40" s="4">
+        <v>0</v>
+      </c>
+      <c r="X40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40" s="4">
-        <v>0</v>
-      </c>
-      <c r="P40" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>0</v>
-      </c>
-      <c r="R40" s="4">
-        <v>0</v>
-      </c>
-      <c r="S40" s="4">
-        <v>0</v>
-      </c>
-      <c r="T40" s="4">
-        <v>0</v>
-      </c>
-      <c r="U40" s="8">
-        <v>164820.2</v>
-      </c>
-      <c r="V40" s="4">
-        <v>0</v>
-      </c>
-      <c r="W40" s="4">
-        <v>0</v>
-      </c>
-      <c r="X40" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -4290,89 +4272,89 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42" s="4">
+        <v>0</v>
+      </c>
+      <c r="U42" s="8">
+        <v>332547.96000000002</v>
+      </c>
+      <c r="V42" s="4">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
+        <v>0</v>
+      </c>
+      <c r="X42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
-      <c r="N42" s="4">
-        <v>0</v>
-      </c>
-      <c r="O42" s="4">
-        <v>0</v>
-      </c>
-      <c r="P42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>0</v>
-      </c>
-      <c r="R42" s="4">
-        <v>0</v>
-      </c>
-      <c r="S42" s="4">
-        <v>0</v>
-      </c>
-      <c r="T42" s="4">
-        <v>0</v>
-      </c>
-      <c r="U42" s="8">
-        <v>332547.96</v>
-      </c>
-      <c r="V42" s="4">
-        <v>0</v>
-      </c>
-      <c r="W42" s="4">
-        <v>0</v>
-      </c>
-      <c r="X42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -4450,9 +4432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -4530,89 +4512,89 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+      <c r="T45" s="4">
+        <v>0</v>
+      </c>
+      <c r="U45" s="8">
+        <v>591825.81999999995</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4">
+        <v>0</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <v>0</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0</v>
-      </c>
-      <c r="O45" s="4">
-        <v>0</v>
-      </c>
-      <c r="P45" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>0</v>
-      </c>
-      <c r="R45" s="4">
-        <v>0</v>
-      </c>
-      <c r="S45" s="4">
-        <v>0</v>
-      </c>
-      <c r="T45" s="4">
-        <v>0</v>
-      </c>
-      <c r="U45" s="8">
-        <v>591825.82</v>
-      </c>
-      <c r="V45" s="4">
-        <v>0</v>
-      </c>
-      <c r="W45" s="4">
-        <v>0</v>
-      </c>
-      <c r="X45" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -4690,9 +4672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -4770,9 +4752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -4850,9 +4832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
@@ -4930,9 +4912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
@@ -5010,9 +4992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
@@ -5090,9 +5072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -5170,9 +5152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
@@ -5250,9 +5232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
@@ -5330,9 +5312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -5410,9 +5392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -5490,9 +5472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
@@ -5570,9 +5552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="4">
         <v>0</v>
@@ -5650,9 +5632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
@@ -5730,9 +5712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
@@ -5810,9 +5792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" s="4">
         <v>0</v>
@@ -5890,9 +5872,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
@@ -5970,9 +5952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
@@ -6050,9 +6032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -6130,9 +6112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="4">
         <v>0</v>
@@ -6210,9 +6192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
@@ -6290,89 +6272,89 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+      <c r="R67" s="4">
+        <v>0</v>
+      </c>
+      <c r="S67" s="4">
+        <v>0</v>
+      </c>
+      <c r="T67" s="4">
+        <v>0</v>
+      </c>
+      <c r="U67" s="8">
+        <v>2226852.1800000002</v>
+      </c>
+      <c r="V67" s="4">
+        <v>0</v>
+      </c>
+      <c r="W67" s="4">
+        <v>0</v>
+      </c>
+      <c r="X67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B67" s="4">
-        <v>0</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0</v>
-      </c>
-      <c r="D67" s="4">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
-        <v>0</v>
-      </c>
-      <c r="I67" s="4">
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <v>0</v>
-      </c>
-      <c r="L67" s="4">
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0</v>
-      </c>
-      <c r="N67" s="4">
-        <v>0</v>
-      </c>
-      <c r="O67" s="4">
-        <v>0</v>
-      </c>
-      <c r="P67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="4">
-        <v>0</v>
-      </c>
-      <c r="R67" s="4">
-        <v>0</v>
-      </c>
-      <c r="S67" s="4">
-        <v>0</v>
-      </c>
-      <c r="T67" s="4">
-        <v>0</v>
-      </c>
-      <c r="U67" s="8">
-        <v>2226852.18</v>
-      </c>
-      <c r="V67" s="4">
-        <v>0</v>
-      </c>
-      <c r="W67" s="4">
-        <v>0</v>
-      </c>
-      <c r="X67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="B68" s="4">
         <v>0</v>
@@ -6450,9 +6432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
@@ -6530,9 +6512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
@@ -6610,9 +6592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
@@ -6690,169 +6672,169 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>0</v>
+      </c>
+      <c r="R72" s="4">
+        <v>0</v>
+      </c>
+      <c r="S72" s="4">
+        <v>0</v>
+      </c>
+      <c r="T72" s="4">
+        <v>0</v>
+      </c>
+      <c r="U72" s="8">
+        <v>6040571.0499999998</v>
+      </c>
+      <c r="V72" s="4">
+        <v>0</v>
+      </c>
+      <c r="W72" s="4">
+        <v>0</v>
+      </c>
+      <c r="X72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="4">
-        <v>0</v>
-      </c>
-      <c r="C72" s="4">
-        <v>0</v>
-      </c>
-      <c r="D72" s="4">
-        <v>0</v>
-      </c>
-      <c r="E72" s="4">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="H72" s="4">
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4">
-        <v>0</v>
-      </c>
-      <c r="L72" s="4">
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <v>0</v>
-      </c>
-      <c r="N72" s="4">
-        <v>0</v>
-      </c>
-      <c r="O72" s="4">
-        <v>0</v>
-      </c>
-      <c r="P72" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="4">
-        <v>0</v>
-      </c>
-      <c r="R72" s="4">
-        <v>0</v>
-      </c>
-      <c r="S72" s="4">
-        <v>0</v>
-      </c>
-      <c r="T72" s="4">
-        <v>0</v>
-      </c>
-      <c r="U72" s="8">
-        <v>6040571.05</v>
-      </c>
-      <c r="V72" s="4">
-        <v>0</v>
-      </c>
-      <c r="W72" s="4">
-        <v>0</v>
-      </c>
-      <c r="X72" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4">
+        <v>0</v>
+      </c>
+      <c r="O73" s="4">
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>0</v>
+      </c>
+      <c r="R73" s="4">
+        <v>0</v>
+      </c>
+      <c r="S73" s="4">
+        <v>0</v>
+      </c>
+      <c r="T73" s="4">
+        <v>0</v>
+      </c>
+      <c r="U73" s="8">
+        <v>7343809.6799999997</v>
+      </c>
+      <c r="V73" s="4">
+        <v>0</v>
+      </c>
+      <c r="W73" s="4">
+        <v>0</v>
+      </c>
+      <c r="X73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4">
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4">
-        <v>0</v>
-      </c>
-      <c r="L73" s="4">
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <v>0</v>
-      </c>
-      <c r="N73" s="4">
-        <v>0</v>
-      </c>
-      <c r="O73" s="4">
-        <v>0</v>
-      </c>
-      <c r="P73" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="4">
-        <v>0</v>
-      </c>
-      <c r="R73" s="4">
-        <v>0</v>
-      </c>
-      <c r="S73" s="4">
-        <v>0</v>
-      </c>
-      <c r="T73" s="4">
-        <v>0</v>
-      </c>
-      <c r="U73" s="8">
-        <v>7343809.68</v>
-      </c>
-      <c r="V73" s="4">
-        <v>0</v>
-      </c>
-      <c r="W73" s="4">
-        <v>0</v>
-      </c>
-      <c r="X73" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
@@ -6930,9 +6912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="3">
         <v>5895.9</v>
@@ -7010,9 +6992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" s="3">
         <v>2957.1</v>
@@ -7090,9 +7072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" s="3">
         <v>2249.6</v>
@@ -7152,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="8">
-        <v>4378457.77</v>
+        <v>4378457.7699999996</v>
       </c>
       <c r="V77" s="4">
         <v>0</v>
@@ -7170,9 +7152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78" s="3">
         <v>1508.5</v>
@@ -7232,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="8">
-        <v>5960841.94</v>
+        <v>5960841.9400000004</v>
       </c>
       <c r="V78" s="4">
         <v>0</v>
@@ -7250,9 +7232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" s="3">
         <v>1089.5</v>
@@ -7312,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="8">
-        <v>7203783.93</v>
+        <v>7203783.9299999997</v>
       </c>
       <c r="V79" s="4">
         <v>0</v>
@@ -7330,12 +7312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="3">
-        <v>2124.8</v>
+        <v>2124.8000000000002</v>
       </c>
       <c r="C80" s="3">
         <v>1035.3</v>
@@ -7410,9 +7392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="4">
         <v>1332</v>
@@ -7490,9 +7472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" s="3">
         <v>1166.5</v>
@@ -7570,15 +7552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83" s="3">
         <v>1148.5</v>
       </c>
       <c r="C83" s="3">
-        <v>-17.9</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="D83" s="3">
         <v>-3.61</v>
@@ -7650,9 +7632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" s="4">
         <v>1107</v>
@@ -7661,7 +7643,7 @@
         <v>-41.5</v>
       </c>
       <c r="D84" s="3">
-        <v>40.02</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="E84" s="4">
         <v>1581</v>
@@ -7730,9 +7712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85" s="3">
         <v>1550.1</v>
@@ -7792,7 +7774,7 @@
         <v>22.3</v>
       </c>
       <c r="U85" s="8">
-        <v>19828410.9</v>
+        <v>19828410.899999999</v>
       </c>
       <c r="V85" s="4">
         <v>0</v>
@@ -7810,9 +7792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" s="3">
         <v>1673.5</v>
@@ -7821,7 +7803,7 @@
         <v>123.4</v>
       </c>
       <c r="D86" s="3">
-        <v>-19.69</v>
+        <v>-19.690000000000001</v>
       </c>
       <c r="E86" s="4">
         <v>2667</v>
@@ -7857,7 +7839,7 @@
         <v>-40</v>
       </c>
       <c r="P86" s="3">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="Q86" s="4">
         <v>2800</v>
@@ -7890,9 +7872,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87" s="4">
         <v>1344</v>
@@ -7925,7 +7907,7 @@
         <v>-25783</v>
       </c>
       <c r="L87" s="3">
-        <v>-17.4</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="M87" s="4">
         <v>326000</v>
@@ -7970,9 +7952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" s="3">
         <v>1344.1</v>
@@ -8029,7 +8011,7 @@
         <v>-8310</v>
       </c>
       <c r="T88" s="3">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="U88" s="8">
         <v>4653798.38</v>
@@ -8050,9 +8032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89" s="3">
         <v>1356.2</v>
@@ -8073,7 +8055,7 @@
         <v>-322</v>
       </c>
       <c r="H89" s="3">
-        <v>-8.3</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="I89" s="4">
         <v>51100</v>
@@ -8112,7 +8094,7 @@
         <v>5</v>
       </c>
       <c r="U89" s="8">
-        <v>5431545.36</v>
+        <v>5431545.3600000003</v>
       </c>
       <c r="V89" s="4">
         <v>0</v>
@@ -8130,9 +8112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" s="3">
         <v>1198.7</v>
@@ -8189,10 +8171,10 @@
         <v>-2020000</v>
       </c>
       <c r="T90" s="3">
-        <v>-2.3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="U90" s="8">
-        <v>6255335.65</v>
+        <v>6255335.6500000004</v>
       </c>
       <c r="V90" s="4">
         <v>0</v>
@@ -8210,9 +8192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" s="3">
         <v>1230.3</v>
@@ -8221,7 +8203,7 @@
         <v>31.6</v>
       </c>
       <c r="D91" s="3">
-        <v>-1.14</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="E91" s="4">
         <v>2839</v>
@@ -8233,7 +8215,7 @@
         <v>-1358</v>
       </c>
       <c r="H91" s="3">
-        <v>-38.2</v>
+        <v>-38.200000000000003</v>
       </c>
       <c r="I91" s="4">
         <v>53600</v>
@@ -8272,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="8">
-        <v>9066567.91</v>
+        <v>9066567.9100000001</v>
       </c>
       <c r="V91" s="4">
         <v>0</v>
@@ -8290,9 +8272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92" s="3">
         <v>1216.3</v>
@@ -8370,9 +8352,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93" s="3">
         <v>1290.3</v>
@@ -8393,7 +8375,7 @@
         <v>-1747</v>
       </c>
       <c r="H93" s="3">
-        <v>-40.2</v>
+        <v>-40.200000000000003</v>
       </c>
       <c r="I93" s="4">
         <v>43500</v>
@@ -8432,7 +8414,7 @@
         <v>3.5</v>
       </c>
       <c r="U93" s="8">
-        <v>12177797.38</v>
+        <v>12177797.380000001</v>
       </c>
       <c r="V93" s="4">
         <v>0</v>
@@ -8450,9 +8432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" s="3">
         <v>1166.3</v>
@@ -8473,7 +8455,7 @@
         <v>242</v>
       </c>
       <c r="H94" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I94" s="4">
         <v>34800</v>
@@ -8497,7 +8479,7 @@
         <v>70</v>
       </c>
       <c r="P94" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q94" s="4">
         <v>2800</v>
@@ -8530,15 +8512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95" s="3">
         <v>1131.7</v>
       </c>
       <c r="C95" s="3">
-        <v>-34.7</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="D95" s="3">
         <v>-5.75</v>
@@ -8577,7 +8559,7 @@
         <v>90</v>
       </c>
       <c r="P95" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q95" s="4">
         <v>2900</v>
@@ -8610,18 +8592,18 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" s="3">
-        <v>1066.6</v>
+        <v>1066.5999999999999</v>
       </c>
       <c r="C96" s="3">
-        <v>-65.1</v>
+        <v>-65.099999999999994</v>
       </c>
       <c r="D96" s="3">
-        <v>34.52</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="E96" s="4">
         <v>1672</v>
@@ -8672,7 +8654,7 @@
         <v>-16</v>
       </c>
       <c r="U96" s="8">
-        <v>17789627.76</v>
+        <v>17789627.760000002</v>
       </c>
       <c r="V96" s="4">
         <v>0</v>
@@ -8690,9 +8672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" s="3">
         <v>1434.8</v>
@@ -8770,12 +8752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" s="3">
-        <v>2224.3</v>
+        <v>2224.3000000000002</v>
       </c>
       <c r="C98" s="3">
         <v>789.5</v>
@@ -8850,9 +8832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" s="3">
         <v>1448.3</v>
@@ -8885,7 +8867,7 @@
         <v>-1368</v>
       </c>
       <c r="L99" s="3">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="M99" s="4">
         <v>364000</v>
@@ -8897,7 +8879,7 @@
         <v>-192</v>
       </c>
       <c r="P99" s="3">
-        <v>-8.2</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="Q99" s="4">
         <v>3200</v>
@@ -8909,7 +8891,7 @@
         <v>7830000</v>
       </c>
       <c r="T99" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="U99" s="8">
         <v>3051946.94</v>
@@ -8930,9 +8912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100" s="3">
         <v>1232.5</v>
@@ -8977,7 +8959,7 @@
         <v>-108</v>
       </c>
       <c r="P100" s="3">
-        <v>-5.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="Q100" s="4">
         <v>3900</v>
@@ -8992,7 +8974,7 @@
         <v>-16.5</v>
       </c>
       <c r="U100" s="8">
-        <v>6343374.99</v>
+        <v>6343374.9900000002</v>
       </c>
       <c r="V100" s="4">
         <v>0</v>
@@ -9010,9 +8992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101" s="3">
         <v>1347.9</v>
@@ -9057,7 +9039,7 @@
         <v>-90</v>
       </c>
       <c r="P101" s="3">
-        <v>-4.4</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="Q101" s="4">
         <v>2800</v>
@@ -9072,7 +9054,7 @@
         <v>10.6</v>
       </c>
       <c r="U101" s="8">
-        <v>7175581.39</v>
+        <v>7175581.3899999997</v>
       </c>
       <c r="V101" s="4">
         <v>0</v>
@@ -9090,9 +9072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" s="3">
         <v>1147.3</v>
@@ -9125,7 +9107,7 @@
         <v>-9648</v>
       </c>
       <c r="L102" s="3">
-        <v>-8.7</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="M102" s="4">
         <v>244000</v>
@@ -9152,7 +9134,7 @@
         <v>-11.7</v>
       </c>
       <c r="U102" s="8">
-        <v>9033439.86</v>
+        <v>9033439.8599999994</v>
       </c>
       <c r="V102" s="4">
         <v>0</v>
@@ -9170,15 +9152,15 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" s="3">
-        <v>1214.9</v>
+        <v>1214.9000000000001</v>
       </c>
       <c r="C103" s="3">
-        <v>67.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="D103" s="3">
         <v>9.6</v>
@@ -9232,7 +9214,7 @@
         <v>3.5</v>
       </c>
       <c r="U103" s="8">
-        <v>11085702.88</v>
+        <v>11085702.880000001</v>
       </c>
       <c r="V103" s="4">
         <v>0</v>
@@ -9250,9 +9232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" s="3">
         <v>1331.5</v>
@@ -9330,15 +9312,15 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" s="3">
         <v>1872.8</v>
       </c>
       <c r="C105" s="3">
-        <v>541.3</v>
+        <v>541.29999999999995</v>
       </c>
       <c r="D105" s="3">
         <v>-27.07</v>
@@ -9353,7 +9335,7 @@
         <v>2009</v>
       </c>
       <c r="H105" s="3">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I105" s="4">
         <v>198000</v>
@@ -9410,9 +9392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B106" s="3">
         <v>1365.8</v>
@@ -9457,7 +9439,7 @@
         <v>93</v>
       </c>
       <c r="P106" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q106" s="4">
         <v>3400</v>
@@ -9472,7 +9454,7 @@
         <v>42.4</v>
       </c>
       <c r="U106" s="8">
-        <v>17472086.8</v>
+        <v>17472086.800000001</v>
       </c>
       <c r="V106" s="4">
         <v>0</v>
@@ -9490,9 +9472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B107" s="3">
         <v>1278.8</v>
@@ -9552,7 +9534,7 @@
         <v>-22.4</v>
       </c>
       <c r="U107" s="8">
-        <v>18934213.42</v>
+        <v>18934213.420000002</v>
       </c>
       <c r="V107" s="4">
         <v>0</v>
@@ -9570,12 +9552,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B108" s="3">
-        <v>1262.9</v>
+        <v>1262.9000000000001</v>
       </c>
       <c r="C108" s="3">
         <v>15.9</v>
@@ -9605,7 +9587,7 @@
         <v>-20466</v>
       </c>
       <c r="L108" s="3">
-        <v>-17.4</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="M108" s="4">
         <v>344000</v>
@@ -9650,9 +9632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" s="3">
         <v>2044.8</v>
@@ -9712,7 +9694,7 @@
         <v>37.5</v>
       </c>
       <c r="U109" s="8">
-        <v>25578825.95</v>
+        <v>25578825.949999999</v>
       </c>
       <c r="V109" s="4">
         <v>0</v>
@@ -9730,9 +9712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110" s="3">
         <v>1603.3</v>
@@ -9789,7 +9771,7 @@
         <v>-4030</v>
       </c>
       <c r="T110" s="3">
-        <v>-4.1</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="U110" s="8">
         <v>853086.74</v>
@@ -9810,9 +9792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111" s="4">
         <v>1269</v>
@@ -9890,18 +9872,18 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" s="3">
-        <v>1175.1</v>
+        <v>1175.0999999999999</v>
       </c>
       <c r="C112" s="3">
         <v>-93.8</v>
       </c>
       <c r="D112" s="3">
-        <v>-17.24</v>
+        <v>-17.239999999999998</v>
       </c>
       <c r="E112" s="4">
         <v>1900</v>
@@ -9952,7 +9934,7 @@
         <v>-14.7</v>
       </c>
       <c r="U112" s="8">
-        <v>4484567.35</v>
+        <v>4484567.3499999996</v>
       </c>
       <c r="V112" s="4">
         <v>0</v>
@@ -9970,9 +9952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113" s="3">
         <v>1377.8</v>
@@ -9981,7 +9963,7 @@
         <v>202.6</v>
       </c>
       <c r="D113" s="3">
-        <v>-10.04</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="E113" s="4">
         <v>3620</v>
@@ -9993,7 +9975,7 @@
         <v>1002</v>
       </c>
       <c r="H113" s="3">
-        <v>74.1</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="I113" s="4">
         <v>24600</v>
@@ -10032,7 +10014,7 @@
         <v>11.2</v>
       </c>
       <c r="U113" s="8">
-        <v>6143408.9</v>
+        <v>6143408.9000000004</v>
       </c>
       <c r="V113" s="4">
         <v>0</v>
@@ -10050,12 +10032,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" s="3">
-        <v>1239.4</v>
+        <v>1239.4000000000001</v>
       </c>
       <c r="C114" s="3">
         <v>-138.4</v>
@@ -10112,7 +10094,7 @@
         <v>-13.3</v>
       </c>
       <c r="U114" s="8">
-        <v>7108982.26</v>
+        <v>7108982.2599999998</v>
       </c>
       <c r="V114" s="4">
         <v>0</v>
@@ -10130,9 +10112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B115" s="3">
         <v>1119.5</v>
@@ -10192,7 +10174,7 @@
         <v>-23.5</v>
       </c>
       <c r="U115" s="8">
-        <v>9665600.82</v>
+        <v>9665600.8200000003</v>
       </c>
       <c r="V115" s="4">
         <v>0</v>
@@ -10210,9 +10192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B116" s="4">
         <v>1153</v>
@@ -10221,7 +10203,7 @@
         <v>33.6</v>
       </c>
       <c r="D116" s="3">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E116" s="4">
         <v>1916</v>
@@ -10257,7 +10239,7 @@
         <v>235</v>
       </c>
       <c r="P116" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Q116" s="4">
         <v>5300</v>
@@ -10290,9 +10272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B117" s="3">
         <v>1622.3</v>
@@ -10313,7 +10295,7 @@
         <v>2009</v>
       </c>
       <c r="H117" s="3">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I117" s="4">
         <v>198000</v>
@@ -10370,12 +10352,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118" s="3">
-        <v>162.8</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="C118" s="3">
         <v>-459.5</v>
@@ -10417,7 +10399,7 @@
         <v>225</v>
       </c>
       <c r="P118" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q118" s="4">
         <v>5900</v>
@@ -10432,7 +10414,7 @@
         <v>56.2</v>
       </c>
       <c r="U118" s="8">
-        <v>15917600.13</v>
+        <v>15917600.130000001</v>
       </c>
       <c r="V118" s="4">
         <v>0</v>
@@ -10450,12 +10432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" s="3">
-        <v>1036.6</v>
+        <v>1036.5999999999999</v>
       </c>
       <c r="C119" s="3">
         <v>-126.2</v>
@@ -10512,7 +10494,7 @@
         <v>-24.2</v>
       </c>
       <c r="U119" s="8">
-        <v>17238507.62</v>
+        <v>17238507.620000001</v>
       </c>
       <c r="V119" s="4">
         <v>0</v>
@@ -10530,9 +10512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B120" s="3">
         <v>1258.7</v>
@@ -10592,7 +10574,7 @@
         <v>-14.4</v>
       </c>
       <c r="U120" s="8">
-        <v>18919910.9</v>
+        <v>18919910.899999999</v>
       </c>
       <c r="V120" s="4">
         <v>0</v>
@@ -10610,9 +10592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B121" s="3">
         <v>1949.1</v>
@@ -10621,7 +10603,7 @@
         <v>690.4</v>
       </c>
       <c r="D121" s="3">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E121" s="4">
         <v>4334</v>
@@ -10672,7 +10654,7 @@
         <v>27</v>
       </c>
       <c r="U121" s="8">
-        <v>24410889.96</v>
+        <v>24410889.960000001</v>
       </c>
       <c r="V121" s="4">
         <v>0</v>
@@ -10690,9 +10672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B122" s="3">
         <v>1989.1</v>
@@ -10761,7 +10743,7 @@
         <v>804</v>
       </c>
       <c r="X122" s="10">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Y122" s="4">
         <v>74800</v>
@@ -10770,12 +10752,12 @@
         <v>8330263</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B123" s="3">
-        <v>2324.8</v>
+        <v>2324.8000000000002</v>
       </c>
       <c r="C123" s="3">
         <v>335.7</v>
@@ -10805,7 +10787,7 @@
         <v>-8626</v>
       </c>
       <c r="L123" s="3">
-        <v>-4.9</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="M123" s="4">
         <v>430000</v>
@@ -10850,9 +10832,9 @@
         <v>8861000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B124" s="3">
         <v>1663.7</v>
@@ -10921,7 +10903,7 @@
         <v>-18165</v>
       </c>
       <c r="X124" s="11">
-        <v>-0.14</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="Y124" s="4">
         <v>396000</v>
@@ -10930,9 +10912,9 @@
         <v>9134060</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B125" s="3">
         <v>1665.7</v>
@@ -10953,7 +10935,7 @@
         <v>1002</v>
       </c>
       <c r="H125" s="3">
-        <v>74.1</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="I125" s="4">
         <v>24600</v>
@@ -11010,9 +10992,9 @@
         <v>10424467</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126" s="3">
         <v>1708.1</v>
@@ -11072,7 +11054,7 @@
         <v>12.4</v>
       </c>
       <c r="U126" s="8">
-        <v>4401347.31</v>
+        <v>4401347.3099999996</v>
       </c>
       <c r="V126" s="4">
         <v>121000</v>
@@ -11090,9 +11072,9 @@
         <v>10550086</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B127" s="3">
         <v>1594.9</v>
@@ -11137,7 +11119,7 @@
         <v>213</v>
       </c>
       <c r="P127" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q127" s="4">
         <v>7300</v>
@@ -11161,7 +11143,7 @@
         <v>-2347</v>
       </c>
       <c r="X127" s="10">
-        <v>-0.019</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="Y127" s="4">
         <v>359000</v>
@@ -11170,9 +11152,9 @@
         <v>10343221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B128" s="3">
         <v>1697.6</v>
@@ -11232,7 +11214,7 @@
         <v>5.4</v>
       </c>
       <c r="U128" s="8">
-        <v>5923904.83</v>
+        <v>5923904.8300000001</v>
       </c>
       <c r="V128" s="4">
         <v>113000</v>
@@ -11241,7 +11223,7 @@
         <v>-4921</v>
       </c>
       <c r="X128" s="10">
-        <v>-0.042</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="Y128" s="4">
         <v>947000</v>
@@ -11250,15 +11232,15 @@
         <v>10140413</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+    <row r="129" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B129" s="3">
         <v>2255.4</v>
       </c>
       <c r="C129" s="3">
-        <v>557.8</v>
+        <v>557.79999999999995</v>
       </c>
       <c r="D129" s="3">
         <v>-9.23</v>
@@ -11285,7 +11267,7 @@
         <v>-4196</v>
       </c>
       <c r="L129" s="3">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="M129" s="4">
         <v>795000</v>
@@ -11312,7 +11294,7 @@
         <v>-5.3</v>
       </c>
       <c r="U129" s="8">
-        <v>7030944.47</v>
+        <v>7030944.4699999997</v>
       </c>
       <c r="V129" s="4">
         <v>103000</v>
@@ -11321,7 +11303,7 @@
         <v>-10619</v>
       </c>
       <c r="X129" s="10">
-        <v>-0.094</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="Y129" s="4">
         <v>364000</v>
@@ -11330,9 +11312,9 @@
         <v>10039048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+    <row r="130" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B130" s="3">
         <v>2047.2</v>
@@ -11392,7 +11374,7 @@
         <v>27.3</v>
       </c>
       <c r="U130" s="8">
-        <v>7938994.18</v>
+        <v>7938994.1799999997</v>
       </c>
       <c r="V130" s="4">
         <v>102000</v>
@@ -11401,7 +11383,7 @@
         <v>-209</v>
       </c>
       <c r="X130" s="10">
-        <v>-0.002</v>
+        <v>-2E-3</v>
       </c>
       <c r="Y130" s="4">
         <v>403000</v>
@@ -11410,9 +11392,9 @@
         <v>9084255</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row r="131" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131" s="3">
         <v>1941.7</v>
@@ -11433,7 +11415,7 @@
         <v>789</v>
       </c>
       <c r="H131" s="3">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="I131" s="4">
         <v>65400</v>
@@ -11472,7 +11454,7 @@
         <v>-29.5</v>
       </c>
       <c r="U131" s="8">
-        <v>9901760.14</v>
+        <v>9901760.1400000006</v>
       </c>
       <c r="V131" s="4">
         <v>69800</v>
@@ -11481,7 +11463,7 @@
         <v>-32650</v>
       </c>
       <c r="X131" s="10">
-        <v>-0.319</v>
+        <v>-0.31900000000000001</v>
       </c>
       <c r="Y131" s="4">
         <v>247000</v>
@@ -11490,9 +11472,9 @@
         <v>9659906</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+    <row r="132" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B132" s="3">
         <v>2119.6</v>
@@ -11501,7 +11483,7 @@
         <v>177.9</v>
       </c>
       <c r="D132" s="3">
-        <v>-0.07</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E132" s="4">
         <v>3314</v>
@@ -11561,7 +11543,7 @@
         <v>18673</v>
       </c>
       <c r="X132" s="10">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="Y132" s="4">
         <v>345000</v>
@@ -11570,9 +11552,9 @@
         <v>11655475</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+    <row r="133" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B133" s="4">
         <v>2118</v>
@@ -11605,7 +11587,7 @@
         <v>99875</v>
       </c>
       <c r="L133" s="3">
-        <v>77.1</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="M133" s="4">
         <v>699000</v>
@@ -11629,10 +11611,10 @@
         <v>74200000</v>
       </c>
       <c r="T133" s="3">
-        <v>77.1</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="U133" s="8">
-        <v>16625485.72</v>
+        <v>16625485.720000001</v>
       </c>
       <c r="V133" s="4">
         <v>107000</v>
@@ -11650,15 +11632,15 @@
         <v>10359958</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row r="134" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B134" s="3">
-        <v>2275.2</v>
+        <v>2275.1999999999998</v>
       </c>
       <c r="C134" s="13">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="D134" s="3">
         <v>33.81</v>
@@ -11721,7 +11703,7 @@
         <v>1714</v>
       </c>
       <c r="X134" s="10">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="Y134" s="4">
         <v>303000</v>
@@ -11730,9 +11712,9 @@
         <v>9236587</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+    <row r="135" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B135" s="3">
         <v>3044.4</v>
@@ -11753,7 +11735,7 @@
         <v>2034</v>
       </c>
       <c r="H135" s="3">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I135" s="4">
         <v>80400</v>
@@ -11801,7 +11783,7 @@
         <v>13022</v>
       </c>
       <c r="X135" s="10">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="Y135" s="4">
         <v>414000</v>
@@ -11810,9 +11792,9 @@
         <v>9322546</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+    <row r="136" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B136" s="3">
         <v>3057.6</v>
@@ -11845,7 +11827,7 @@
         <v>16739</v>
       </c>
       <c r="L136" s="3">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M136" s="4">
         <v>914000</v>
@@ -11881,7 +11863,7 @@
         <v>17502</v>
       </c>
       <c r="X136" s="10">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Y136" s="4">
         <v>1610000</v>
@@ -11890,18 +11872,18 @@
         <v>9566017</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+    <row r="137" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B137" s="3">
         <v>3127.8</v>
       </c>
       <c r="C137" s="3">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D137" s="3">
-        <v>-9.97</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="E137" s="4">
         <v>6141</v>
@@ -11961,7 +11943,7 @@
         <v>-10608</v>
       </c>
       <c r="X137" s="10">
-        <v>-0.076</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="Y137" s="4">
         <v>410000</v>
@@ -11970,9 +11952,9 @@
         <v>9302254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+    <row r="138" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138" s="3">
         <v>2816.1</v>
@@ -12017,7 +11999,7 @@
         <v>-482</v>
       </c>
       <c r="P138" s="3">
-        <v>-10.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="Q138" s="4">
         <v>6500</v>
@@ -12032,7 +12014,7 @@
         <v>-15.2</v>
       </c>
       <c r="U138" s="8">
-        <v>5699314.18</v>
+        <v>5699314.1799999997</v>
       </c>
       <c r="V138" s="4">
         <v>117000</v>
@@ -12050,9 +12032,9 @@
         <v>10266570</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row r="139" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B139" s="3">
         <v>2184.9</v>
@@ -12112,7 +12094,7 @@
         <v>-8.9</v>
       </c>
       <c r="U139" s="14">
-        <v>6340704.98</v>
+        <v>6340704.9800000004</v>
       </c>
       <c r="V139" s="4">
         <v>96400</v>
@@ -12121,7 +12103,7 @@
         <v>-21073</v>
       </c>
       <c r="X139" s="10">
-        <v>-0.179</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="Y139" s="4">
         <v>355000</v>
@@ -12130,15 +12112,15 @@
         <v>9055876</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+    <row r="140" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B140" s="3">
         <v>1871.8</v>
       </c>
       <c r="C140" s="13">
-        <v>-313.1</v>
+        <v>-313.10000000000002</v>
       </c>
       <c r="D140" s="3">
         <v>34.82</v>
@@ -12210,15 +12192,15 @@
         <v>10330554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+    <row r="141" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B141" s="3">
         <v>2523.5</v>
       </c>
       <c r="C141" s="13">
-        <v>651.7</v>
+        <v>651.70000000000005</v>
       </c>
       <c r="D141" s="3">
         <v>-13.07</v>
@@ -12245,7 +12227,7 @@
         <v>-36464</v>
       </c>
       <c r="L141" s="3">
-        <v>-19.6</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="M141" s="4">
         <v>640000</v>
@@ -12257,7 +12239,7 @@
         <v>-202</v>
       </c>
       <c r="P141" s="3">
-        <v>-5.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="Q141" s="4">
         <v>5500</v>
@@ -12272,7 +12254,7 @@
         <v>-22.2</v>
       </c>
       <c r="U141" s="8">
-        <v>8492996.7</v>
+        <v>8492996.6999999993</v>
       </c>
       <c r="V141" s="4">
         <v>74900</v>
@@ -12281,7 +12263,7 @@
         <v>-6618</v>
       </c>
       <c r="X141" s="10">
-        <v>-0.081</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="Y141" s="4">
         <v>353000</v>
@@ -12290,12 +12272,12 @@
         <v>9960144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+    <row r="142" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B142" s="3">
-        <v>2144.8</v>
+        <v>2144.8000000000002</v>
       </c>
       <c r="C142" s="13">
         <v>-345.7</v>
@@ -12361,7 +12343,7 @@
         <v>-6381</v>
       </c>
       <c r="X142" s="10">
-        <v>-0.085</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="Y142" s="4">
         <v>213000</v>
@@ -12370,9 +12352,9 @@
         <v>9301145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+    <row r="143" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B143" s="3">
         <v>1938.2</v>
@@ -12441,7 +12423,7 @@
         <v>-18586</v>
       </c>
       <c r="X143" s="10">
-        <v>-0.271</v>
+        <v>-0.27100000000000002</v>
       </c>
       <c r="Y143" s="4">
         <v>263000</v>
@@ -12450,9 +12432,9 @@
         <v>9133015</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row r="144" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B144" s="3">
         <v>2135.5</v>
@@ -12461,7 +12443,7 @@
         <v>197.3</v>
       </c>
       <c r="D144" s="3">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E144" s="4">
         <v>5436</v>
@@ -12485,7 +12467,7 @@
         <v>-14542</v>
       </c>
       <c r="L144" s="3">
-        <v>-10.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="M144" s="4">
         <v>591000</v>
@@ -12521,7 +12503,7 @@
         <v>20743</v>
       </c>
       <c r="X144" s="10">
-        <v>0.416</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="Y144" s="4">
         <v>453000</v>
@@ -12530,12 +12512,12 @@
         <v>8501335</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+    <row r="145" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B145" s="3">
-        <v>2222.2</v>
+        <v>2222.1999999999998</v>
       </c>
       <c r="C145" s="13">
         <v>86.7</v>
@@ -12592,7 +12574,7 @@
         <v>93.9</v>
       </c>
       <c r="U145" s="8">
-        <v>21319818.54</v>
+        <v>21319818.539999999</v>
       </c>
       <c r="V145" s="4">
         <v>60400</v>
@@ -12601,7 +12583,7 @@
         <v>-10270</v>
       </c>
       <c r="X145" s="10">
-        <v>-0.145</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="Y145" s="4">
         <v>182000</v>
@@ -12610,9 +12592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+    <row r="146" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B146" s="3">
         <v>2116.9</v>
@@ -12645,7 +12627,7 @@
         <v>-47499</v>
       </c>
       <c r="L146" s="3">
-        <v>-19.1</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="M146" s="4">
         <v>633000</v>
@@ -12657,7 +12639,7 @@
         <v>-841</v>
       </c>
       <c r="P146" s="3">
-        <v>-17.6</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="Q146" s="4">
         <v>6800</v>
@@ -12690,9 +12672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+    <row r="147" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B147" s="3">
         <v>2009.3</v>
@@ -12761,7 +12743,7 @@
         <v>-5050</v>
       </c>
       <c r="X147" s="10">
-        <v>-0.089</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="Y147" s="4">
         <v>135000</v>
@@ -12770,9 +12752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+    <row r="148" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B148" s="3">
         <v>1907.9</v>
@@ -12841,7 +12823,7 @@
         <v>-4847</v>
       </c>
       <c r="X148" s="10">
-        <v>-0.094</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="Y148" s="4">
         <v>107000</v>
@@ -12850,12 +12832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B149" s="3">
-        <v>2.154</v>
+        <v>2.1539999999999999</v>
       </c>
       <c r="C149" s="13">
         <v>246.1</v>
@@ -12928,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -12956,7 +12938,7 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -12986,5 +12968,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Definitivo.xlsx
+++ b/Definitivo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\Programação\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9F5338-C577-4061-8A82-C745CDD47C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E768352-6892-4740-AB37-B927F4933723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -634,13 +634,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -959,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U142" sqref="U142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +966,7 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" style="12" customWidth="1"/>
     <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1034,7 +1032,7 @@
       <c r="T1" t="s">
         <v>167</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="12" t="s">
         <v>168</v>
       </c>
       <c r="V1" t="s">
@@ -3442,7 +3440,7 @@
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29" s="12">
+      <c r="U29" s="13">
         <v>1309.33</v>
       </c>
       <c r="V29">
@@ -3528,7 +3526,7 @@
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30" s="12">
+      <c r="U30" s="13">
         <v>1309.33</v>
       </c>
       <c r="V30">
@@ -3614,7 +3612,7 @@
       <c r="T31">
         <v>0</v>
       </c>
-      <c r="U31" s="12">
+      <c r="U31" s="13">
         <v>1309.33</v>
       </c>
       <c r="V31">
@@ -3700,7 +3698,7 @@
       <c r="T32">
         <v>0</v>
       </c>
-      <c r="U32" s="12">
+      <c r="U32" s="13">
         <v>1309.33</v>
       </c>
       <c r="V32">
@@ -3786,7 +3784,7 @@
       <c r="T33">
         <v>0</v>
       </c>
-      <c r="U33" s="12">
+      <c r="U33" s="13">
         <v>6772.76</v>
       </c>
       <c r="V33">
@@ -3872,7 +3870,7 @@
       <c r="T34">
         <v>0</v>
       </c>
-      <c r="U34" s="12">
+      <c r="U34" s="13">
         <v>13260.77</v>
       </c>
       <c r="V34">
@@ -3958,7 +3956,7 @@
       <c r="T35">
         <v>0</v>
       </c>
-      <c r="U35" s="12">
+      <c r="U35" s="13">
         <v>23973.98</v>
       </c>
       <c r="V35">
@@ -4044,7 +4042,7 @@
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36" s="12">
+      <c r="U36" s="13">
         <v>122425.32</v>
       </c>
       <c r="V36">
@@ -4130,7 +4128,7 @@
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="U37" s="12">
+      <c r="U37" s="13">
         <v>222538.77</v>
       </c>
       <c r="V37">
@@ -4216,7 +4214,7 @@
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="U38" s="12">
+      <c r="U38" s="13">
         <v>21889.65</v>
       </c>
       <c r="V38">
@@ -4302,7 +4300,7 @@
       <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39" s="12">
+      <c r="U39" s="13">
         <v>71698.91</v>
       </c>
       <c r="V39">
@@ -4388,7 +4386,7 @@
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40" s="12">
+      <c r="U40" s="13">
         <v>164820.20000000001</v>
       </c>
       <c r="V40">
@@ -4474,7 +4472,7 @@
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41" s="12">
+      <c r="U41" s="13">
         <v>297748.49</v>
       </c>
       <c r="V41">
@@ -4560,7 +4558,7 @@
       <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="13">
         <v>332547.96000000002</v>
       </c>
       <c r="V42">
@@ -4646,7 +4644,7 @@
       <c r="T43">
         <v>0</v>
       </c>
-      <c r="U43" s="12">
+      <c r="U43" s="13">
         <v>482987.23</v>
       </c>
       <c r="V43">
@@ -4732,7 +4730,7 @@
       <c r="T44">
         <v>0</v>
       </c>
-      <c r="U44" s="12">
+      <c r="U44" s="13">
         <v>520402.96</v>
       </c>
       <c r="V44">
@@ -4818,7 +4816,7 @@
       <c r="T45">
         <v>0</v>
       </c>
-      <c r="U45" s="12">
+      <c r="U45" s="13">
         <v>591825.81999999995</v>
       </c>
       <c r="V45">
@@ -4904,7 +4902,7 @@
       <c r="T46">
         <v>0</v>
       </c>
-      <c r="U46" s="12">
+      <c r="U46" s="13">
         <v>648901.71</v>
       </c>
       <c r="V46">
@@ -4990,7 +4988,7 @@
       <c r="T47">
         <v>0</v>
       </c>
-      <c r="U47" s="12">
+      <c r="U47" s="13">
         <v>731668.88</v>
       </c>
       <c r="V47">
@@ -5076,7 +5074,7 @@
       <c r="T48">
         <v>0</v>
       </c>
-      <c r="U48" s="12">
+      <c r="U48" s="13">
         <v>1331452.76</v>
       </c>
       <c r="V48">
@@ -5162,7 +5160,7 @@
       <c r="T49">
         <v>0</v>
       </c>
-      <c r="U49" s="12">
+      <c r="U49" s="13">
         <v>1461869.54</v>
       </c>
       <c r="V49">
@@ -5248,7 +5246,7 @@
       <c r="T50">
         <v>0</v>
       </c>
-      <c r="U50" s="12">
+      <c r="U50" s="13">
         <v>81389.25</v>
       </c>
       <c r="V50">
@@ -5334,7 +5332,7 @@
       <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51" s="12">
+      <c r="U51" s="13">
         <v>122770.38</v>
       </c>
       <c r="V51">
@@ -5420,7 +5418,7 @@
       <c r="T52">
         <v>0</v>
       </c>
-      <c r="U52" s="12">
+      <c r="U52" s="13">
         <v>669657.65</v>
       </c>
       <c r="V52">
@@ -5506,7 +5504,7 @@
       <c r="T53">
         <v>0</v>
       </c>
-      <c r="U53" s="12">
+      <c r="U53" s="13">
         <v>754716.57</v>
       </c>
       <c r="V53">
@@ -5592,7 +5590,7 @@
       <c r="T54">
         <v>0</v>
       </c>
-      <c r="U54" s="12">
+      <c r="U54" s="13">
         <v>816811.22</v>
       </c>
       <c r="V54">
@@ -5678,7 +5676,7 @@
       <c r="T55">
         <v>0</v>
       </c>
-      <c r="U55" s="12">
+      <c r="U55" s="13">
         <v>971753.74</v>
       </c>
       <c r="V55">
@@ -5764,7 +5762,7 @@
       <c r="T56">
         <v>0</v>
       </c>
-      <c r="U56" s="12">
+      <c r="U56" s="13">
         <v>1038665.2</v>
       </c>
       <c r="V56">
@@ -5850,7 +5848,7 @@
       <c r="T57">
         <v>0</v>
       </c>
-      <c r="U57" s="12">
+      <c r="U57" s="13">
         <v>1645629.14</v>
       </c>
       <c r="V57">
@@ -5936,7 +5934,7 @@
       <c r="T58">
         <v>0</v>
       </c>
-      <c r="U58" s="12">
+      <c r="U58" s="13">
         <v>1707689.43</v>
       </c>
       <c r="V58">
@@ -6022,7 +6020,7 @@
       <c r="T59">
         <v>0</v>
       </c>
-      <c r="U59" s="12">
+      <c r="U59" s="13">
         <v>1923818.96</v>
       </c>
       <c r="V59">
@@ -6108,7 +6106,7 @@
       <c r="T60">
         <v>0</v>
       </c>
-      <c r="U60" s="12">
+      <c r="U60" s="13">
         <v>2571492.64</v>
       </c>
       <c r="V60">
@@ -6194,7 +6192,7 @@
       <c r="T61">
         <v>0</v>
       </c>
-      <c r="U61" s="12">
+      <c r="U61" s="13">
         <v>2712515.01</v>
       </c>
       <c r="V61">
@@ -6280,7 +6278,7 @@
       <c r="T62">
         <v>0</v>
       </c>
-      <c r="U62" s="12">
+      <c r="U62" s="13">
         <v>109366.62</v>
       </c>
       <c r="V62">
@@ -6366,7 +6364,7 @@
       <c r="T63">
         <v>0</v>
       </c>
-      <c r="U63" s="12">
+      <c r="U63" s="13">
         <v>219315.47</v>
       </c>
       <c r="V63">
@@ -6452,7 +6450,7 @@
       <c r="T64">
         <v>0</v>
       </c>
-      <c r="U64" s="12">
+      <c r="U64" s="13">
         <v>882518.74</v>
       </c>
       <c r="V64">
@@ -6538,7 +6536,7 @@
       <c r="T65">
         <v>0</v>
       </c>
-      <c r="U65" s="12">
+      <c r="U65" s="13">
         <v>1355408.95</v>
       </c>
       <c r="V65">
@@ -6624,7 +6622,7 @@
       <c r="T66">
         <v>0</v>
       </c>
-      <c r="U66" s="12">
+      <c r="U66" s="13">
         <v>1609173.1</v>
       </c>
       <c r="V66">
@@ -6710,7 +6708,7 @@
       <c r="T67">
         <v>0</v>
       </c>
-      <c r="U67" s="12">
+      <c r="U67" s="13">
         <v>2226852.1800000002</v>
       </c>
       <c r="V67">
@@ -6796,7 +6794,7 @@
       <c r="T68">
         <v>0</v>
       </c>
-      <c r="U68" s="12">
+      <c r="U68" s="13">
         <v>3107961.9</v>
       </c>
       <c r="V68">
@@ -6882,7 +6880,7 @@
       <c r="T69">
         <v>0</v>
       </c>
-      <c r="U69" s="12">
+      <c r="U69" s="13">
         <v>3855994.04</v>
       </c>
       <c r="V69">
@@ -6968,7 +6966,7 @@
       <c r="T70">
         <v>0</v>
       </c>
-      <c r="U70" s="12">
+      <c r="U70" s="13">
         <v>4431774.63</v>
       </c>
       <c r="V70">
@@ -7054,7 +7052,7 @@
       <c r="T71">
         <v>0</v>
       </c>
-      <c r="U71" s="12">
+      <c r="U71" s="13">
         <v>4846558.66</v>
       </c>
       <c r="V71">
@@ -7140,7 +7138,7 @@
       <c r="T72">
         <v>0</v>
       </c>
-      <c r="U72" s="12">
+      <c r="U72" s="13">
         <v>6040571.0499999998</v>
       </c>
       <c r="V72">
@@ -7226,7 +7224,7 @@
       <c r="T73">
         <v>0</v>
       </c>
-      <c r="U73" s="12">
+      <c r="U73" s="13">
         <v>7343809.6799999997</v>
       </c>
       <c r="V73">
@@ -7312,7 +7310,7 @@
       <c r="T74">
         <v>0</v>
       </c>
-      <c r="U74" s="12">
+      <c r="U74" s="13">
         <v>703550.83</v>
       </c>
       <c r="V74">
@@ -7398,7 +7396,7 @@
       <c r="T75">
         <v>0</v>
       </c>
-      <c r="U75" s="12">
+      <c r="U75" s="13">
         <v>1312413.95</v>
       </c>
       <c r="V75">
@@ -7484,7 +7482,7 @@
       <c r="T76">
         <v>0</v>
       </c>
-      <c r="U76" s="12">
+      <c r="U76" s="13">
         <v>1789987.13</v>
       </c>
       <c r="V76">
@@ -7570,7 +7568,7 @@
       <c r="T77">
         <v>0</v>
       </c>
-      <c r="U77" s="12">
+      <c r="U77" s="13">
         <v>4378457.7699999996</v>
       </c>
       <c r="V77">
@@ -7656,7 +7654,7 @@
       <c r="T78">
         <v>0</v>
       </c>
-      <c r="U78" s="12">
+      <c r="U78" s="13">
         <v>5960841.9400000004</v>
       </c>
       <c r="V78">
@@ -7742,7 +7740,7 @@
       <c r="T79">
         <v>0</v>
       </c>
-      <c r="U79" s="12">
+      <c r="U79" s="13">
         <v>7203783.9299999997</v>
       </c>
       <c r="V79">
@@ -7828,7 +7826,7 @@
       <c r="T80">
         <v>0</v>
       </c>
-      <c r="U80" s="12">
+      <c r="U80" s="13">
         <v>11128892.18</v>
       </c>
       <c r="V80">
@@ -7914,7 +7912,7 @@
       <c r="T81">
         <v>0</v>
       </c>
-      <c r="U81" s="12">
+      <c r="U81" s="13">
         <v>11572328.16</v>
       </c>
       <c r="V81">
@@ -8000,7 +7998,7 @@
       <c r="T82">
         <v>0</v>
       </c>
-      <c r="U82" s="12">
+      <c r="U82" s="13">
         <v>12551395.25</v>
       </c>
       <c r="V82">
@@ -8086,7 +8084,7 @@
       <c r="T83">
         <v>0</v>
       </c>
-      <c r="U83" s="12">
+      <c r="U83" s="13">
         <v>14874091.83</v>
       </c>
       <c r="V83">
@@ -8172,7 +8170,7 @@
       <c r="T84">
         <v>0</v>
       </c>
-      <c r="U84" s="12">
+      <c r="U84" s="13">
         <v>16594388.42</v>
       </c>
       <c r="V84">
@@ -8258,7 +8256,7 @@
       <c r="T85">
         <v>22.3</v>
       </c>
-      <c r="U85" s="12">
+      <c r="U85" s="13">
         <v>19828410.899999999</v>
       </c>
       <c r="V85">
@@ -8344,7 +8342,7 @@
       <c r="T86">
         <v>0.2</v>
       </c>
-      <c r="U86" s="12">
+      <c r="U86" s="13">
         <v>3674065.16</v>
       </c>
       <c r="V86">
@@ -8430,7 +8428,7 @@
       <c r="T87">
         <v>-8.6</v>
       </c>
-      <c r="U87" s="12">
+      <c r="U87" s="13">
         <v>4222397.51</v>
       </c>
       <c r="V87">
@@ -8516,7 +8514,7 @@
       <c r="T88">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="U88" s="12">
+      <c r="U88" s="13">
         <v>4653798.38</v>
       </c>
       <c r="V88">
@@ -8602,7 +8600,7 @@
       <c r="T89">
         <v>5</v>
       </c>
-      <c r="U89" s="12">
+      <c r="U89" s="13">
         <v>5431545.3600000003</v>
       </c>
       <c r="V89">
@@ -8688,7 +8686,7 @@
       <c r="T90">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="U90" s="12">
+      <c r="U90" s="13">
         <v>6255335.6500000004</v>
       </c>
       <c r="V90">
@@ -8774,7 +8772,7 @@
       <c r="T91">
         <v>0</v>
       </c>
-      <c r="U91" s="12">
+      <c r="U91" s="13">
         <v>9066567.9100000001</v>
       </c>
       <c r="V91">
@@ -8860,7 +8858,7 @@
       <c r="T92">
         <v>-15.1</v>
       </c>
-      <c r="U92" s="12">
+      <c r="U92" s="13">
         <v>11881322.24</v>
       </c>
       <c r="V92">
@@ -8946,7 +8944,7 @@
       <c r="T93">
         <v>3.5</v>
       </c>
-      <c r="U93" s="12">
+      <c r="U93" s="13">
         <v>12177797.380000001</v>
       </c>
       <c r="V93">
@@ -9032,7 +9030,7 @@
       <c r="T94">
         <v>27.2</v>
       </c>
-      <c r="U94" s="12">
+      <c r="U94" s="13">
         <v>13517829.67</v>
       </c>
       <c r="V94">
@@ -9118,7 +9116,7 @@
       <c r="T95">
         <v>-12.4</v>
       </c>
-      <c r="U95" s="12">
+      <c r="U95" s="13">
         <v>15955291.33</v>
       </c>
       <c r="V95">
@@ -9204,7 +9202,7 @@
       <c r="T96">
         <v>-16</v>
       </c>
-      <c r="U96" s="12">
+      <c r="U96" s="13">
         <v>17789627.760000002</v>
       </c>
       <c r="V96">
@@ -9290,7 +9288,7 @@
       <c r="T97">
         <v>28</v>
       </c>
-      <c r="U97" s="12">
+      <c r="U97" s="13">
         <v>21706143.07</v>
       </c>
       <c r="V97">
@@ -9376,7 +9374,7 @@
       <c r="T98">
         <v>-9</v>
       </c>
-      <c r="U98" s="12">
+      <c r="U98" s="13">
         <v>2269332.4</v>
       </c>
       <c r="V98">
@@ -9462,7 +9460,7 @@
       <c r="T99">
         <v>9.6999999999999993</v>
       </c>
-      <c r="U99" s="12">
+      <c r="U99" s="13">
         <v>3051946.94</v>
       </c>
       <c r="V99">
@@ -9548,7 +9546,7 @@
       <c r="T100">
         <v>-16.5</v>
       </c>
-      <c r="U100" s="12">
+      <c r="U100" s="13">
         <v>6343374.9900000002</v>
       </c>
       <c r="V100">
@@ -9634,7 +9632,7 @@
       <c r="T101">
         <v>10.6</v>
       </c>
-      <c r="U101" s="12">
+      <c r="U101" s="13">
         <v>7175581.3899999997</v>
       </c>
       <c r="V101">
@@ -9720,7 +9718,7 @@
       <c r="T102">
         <v>-11.7</v>
       </c>
-      <c r="U102" s="12">
+      <c r="U102" s="13">
         <v>9033439.8599999994</v>
       </c>
       <c r="V102">
@@ -9806,7 +9804,7 @@
       <c r="T103">
         <v>3.5</v>
       </c>
-      <c r="U103" s="12">
+      <c r="U103" s="13">
         <v>11085702.880000001</v>
       </c>
       <c r="V103">
@@ -9892,7 +9890,7 @@
       <c r="T104">
         <v>8.4</v>
       </c>
-      <c r="U104" s="12">
+      <c r="U104" s="13">
         <v>13103512.65</v>
       </c>
       <c r="V104">
@@ -9978,7 +9976,7 @@
       <c r="T105">
         <v>-5.8</v>
       </c>
-      <c r="U105" s="12">
+      <c r="U105" s="13">
         <v>14056493.49</v>
       </c>
       <c r="V105">
@@ -10064,7 +10062,7 @@
       <c r="T106">
         <v>42.4</v>
       </c>
-      <c r="U106" s="12">
+      <c r="U106" s="13">
         <v>17472086.800000001</v>
       </c>
       <c r="V106">
@@ -10150,7 +10148,7 @@
       <c r="T107">
         <v>-22.4</v>
       </c>
-      <c r="U107" s="12">
+      <c r="U107" s="13">
         <v>18934213.420000002</v>
       </c>
       <c r="V107">
@@ -10236,7 +10234,7 @@
       <c r="T108">
         <v>-14.7</v>
       </c>
-      <c r="U108" s="12">
+      <c r="U108" s="13">
         <v>20983098.93</v>
       </c>
       <c r="V108">
@@ -10322,7 +10320,7 @@
       <c r="T109">
         <v>37.5</v>
       </c>
-      <c r="U109" s="12">
+      <c r="U109" s="13">
         <v>25578825.949999999</v>
       </c>
       <c r="V109">
@@ -10408,7 +10406,7 @@
       <c r="T110">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="U110" s="12">
+      <c r="U110" s="13">
         <v>853086.74</v>
       </c>
       <c r="V110">
@@ -10494,7 +10492,7 @@
       <c r="T111">
         <v>14.1</v>
       </c>
-      <c r="U111" s="12">
+      <c r="U111" s="13">
         <v>1085693.5</v>
       </c>
       <c r="V111">
@@ -10580,7 +10578,7 @@
       <c r="T112">
         <v>-14.7</v>
       </c>
-      <c r="U112" s="12">
+      <c r="U112" s="13">
         <v>4484567.3499999996</v>
       </c>
       <c r="V112">
@@ -10666,7 +10664,7 @@
       <c r="T113">
         <v>11.2</v>
       </c>
-      <c r="U113" s="12">
+      <c r="U113" s="13">
         <v>6143408.9000000004</v>
       </c>
       <c r="V113">
@@ -10752,7 +10750,7 @@
       <c r="T114">
         <v>-13.3</v>
       </c>
-      <c r="U114" s="12">
+      <c r="U114" s="13">
         <v>7108982.2599999998</v>
       </c>
       <c r="V114">
@@ -10838,7 +10836,7 @@
       <c r="T115">
         <v>-23.5</v>
       </c>
-      <c r="U115" s="12">
+      <c r="U115" s="13">
         <v>9665600.8200000003</v>
       </c>
       <c r="V115">
@@ -10924,7 +10922,7 @@
       <c r="T116">
         <v>26.2</v>
       </c>
-      <c r="U116" s="12">
+      <c r="U116" s="13">
         <v>12538772.5</v>
       </c>
       <c r="V116">
@@ -11010,7 +11008,7 @@
       <c r="T117">
         <v>-9.9</v>
       </c>
-      <c r="U117" s="12">
+      <c r="U117" s="13">
         <v>12769762.66</v>
       </c>
       <c r="V117">
@@ -11096,7 +11094,7 @@
       <c r="T118">
         <v>56.2</v>
       </c>
-      <c r="U118" s="12">
+      <c r="U118" s="13">
         <v>15917600.130000001</v>
       </c>
       <c r="V118">
@@ -11182,7 +11180,7 @@
       <c r="T119">
         <v>-24.2</v>
       </c>
-      <c r="U119" s="12">
+      <c r="U119" s="13">
         <v>17238507.620000001</v>
       </c>
       <c r="V119">
@@ -11268,7 +11266,7 @@
       <c r="T120">
         <v>-14.4</v>
       </c>
-      <c r="U120" s="12">
+      <c r="U120" s="13">
         <v>18919910.899999999</v>
       </c>
       <c r="V120">
@@ -11354,7 +11352,7 @@
       <c r="T121">
         <v>27</v>
       </c>
-      <c r="U121" s="12">
+      <c r="U121" s="13">
         <v>24410889.960000001</v>
       </c>
       <c r="V121">
@@ -11440,7 +11438,7 @@
       <c r="T122">
         <v>21.7</v>
       </c>
-      <c r="U122" s="12">
+      <c r="U122" s="13">
         <v>351510.31</v>
       </c>
       <c r="V122">
@@ -11526,7 +11524,7 @@
       <c r="T123">
         <v>1.7</v>
       </c>
-      <c r="U123" s="12">
+      <c r="U123" s="13">
         <v>856920.23</v>
       </c>
       <c r="V123">
@@ -11612,7 +11610,7 @@
       <c r="T124">
         <v>9.6</v>
       </c>
-      <c r="U124" s="12">
+      <c r="U124" s="13">
         <v>1418856.88</v>
       </c>
       <c r="V124">
@@ -11698,7 +11696,7 @@
       <c r="T125">
         <v>-5.9</v>
       </c>
-      <c r="U125" s="12">
+      <c r="U125" s="13">
         <v>3411472.29</v>
       </c>
       <c r="V125">
@@ -11784,7 +11782,7 @@
       <c r="T126">
         <v>12.4</v>
       </c>
-      <c r="U126" s="12">
+      <c r="U126" s="13">
         <v>4401347.3099999996</v>
       </c>
       <c r="V126">
@@ -11870,7 +11868,7 @@
       <c r="T127">
         <v>-5.4</v>
       </c>
-      <c r="U127" s="12">
+      <c r="U127" s="13">
         <v>5292478.57</v>
       </c>
       <c r="V127">
@@ -11956,7 +11954,7 @@
       <c r="T128">
         <v>5.4</v>
       </c>
-      <c r="U128" s="12">
+      <c r="U128" s="13">
         <v>5923904.8300000001</v>
       </c>
       <c r="V128">
@@ -12042,7 +12040,7 @@
       <c r="T129">
         <v>-5.3</v>
       </c>
-      <c r="U129" s="12">
+      <c r="U129" s="13">
         <v>7030944.4699999997</v>
       </c>
       <c r="V129">
@@ -12128,7 +12126,7 @@
       <c r="T130">
         <v>27.3</v>
       </c>
-      <c r="U130" s="12">
+      <c r="U130" s="13">
         <v>7938994.1799999997</v>
       </c>
       <c r="V130">
@@ -12214,7 +12212,7 @@
       <c r="T131">
         <v>-29.5</v>
       </c>
-      <c r="U131" s="12">
+      <c r="U131" s="13">
         <v>9901760.1400000006</v>
       </c>
       <c r="V131">
@@ -12300,7 +12298,7 @@
       <c r="T132">
         <v>-20.5</v>
       </c>
-      <c r="U132" s="12">
+      <c r="U132" s="13">
         <v>10856319.77</v>
       </c>
       <c r="V132">
@@ -12386,7 +12384,7 @@
       <c r="T133">
         <v>77.099999999999994</v>
       </c>
-      <c r="U133" s="12">
+      <c r="U133" s="13">
         <v>16625485.720000001</v>
       </c>
       <c r="V133">
@@ -12472,7 +12470,7 @@
       <c r="T134">
         <v>-12</v>
       </c>
-      <c r="U134" s="12">
+      <c r="U134" s="13">
         <v>1495367.34</v>
       </c>
       <c r="V134">
@@ -12558,7 +12556,7 @@
       <c r="T135">
         <v>-0.2</v>
       </c>
-      <c r="U135" s="12">
+      <c r="U135" s="13">
         <v>2742266.93</v>
       </c>
       <c r="V135">
@@ -12644,7 +12642,7 @@
       <c r="T136">
         <v>4.8</v>
       </c>
-      <c r="U136" s="12">
+      <c r="U136" s="13">
         <v>3074116.59</v>
       </c>
       <c r="V136">
@@ -12730,7 +12728,7 @@
       <c r="T137">
         <v>10.8</v>
       </c>
-      <c r="U137" s="12">
+      <c r="U137" s="13">
         <v>4592940.5</v>
       </c>
       <c r="V137">
@@ -12816,7 +12814,7 @@
       <c r="T138">
         <v>-15.2</v>
       </c>
-      <c r="U138" s="12">
+      <c r="U138" s="13">
         <v>5699314.1799999997</v>
       </c>
       <c r="V138">
@@ -12988,7 +12986,7 @@
       <c r="T140">
         <v>2.8</v>
       </c>
-      <c r="U140" s="12">
+      <c r="U140" s="13">
         <v>8318802.79</v>
       </c>
       <c r="V140">
@@ -13074,7 +13072,7 @@
       <c r="T141">
         <v>-22.2</v>
       </c>
-      <c r="U141" s="12">
+      <c r="U141" s="13">
         <v>8492996.6999999993</v>
       </c>
       <c r="V141">
@@ -13160,7 +13158,7 @@
       <c r="T142">
         <v>94</v>
       </c>
-      <c r="U142" s="12">
+      <c r="U142" s="13">
         <v>12203979.98</v>
       </c>
       <c r="V142">
@@ -13246,7 +13244,7 @@
       <c r="T143">
         <v>-50.8</v>
       </c>
-      <c r="U143" s="12">
+      <c r="U143" s="13">
         <v>13093092.5</v>
       </c>
       <c r="V143">
@@ -13332,7 +13330,7 @@
       <c r="T144">
         <v>-7.2</v>
       </c>
-      <c r="U144" s="12">
+      <c r="U144" s="13">
         <v>16619240.5</v>
       </c>
       <c r="V144">
@@ -13418,7 +13416,7 @@
       <c r="T145">
         <v>93.9</v>
       </c>
-      <c r="U145" s="12">
+      <c r="U145" s="13">
         <v>21319818.539999999</v>
       </c>
       <c r="V145">
@@ -13504,7 +13502,7 @@
       <c r="T146">
         <v>-27.3</v>
       </c>
-      <c r="U146" s="12">
+      <c r="U146" s="13">
         <v>390051.6</v>
       </c>
       <c r="V146">
@@ -13590,7 +13588,7 @@
       <c r="T147">
         <v>2.6</v>
       </c>
-      <c r="U147" s="12">
+      <c r="U147" s="13">
         <v>1936275.95</v>
       </c>
       <c r="V147">
@@ -13676,7 +13674,7 @@
       <c r="T148">
         <v>-72.8</v>
       </c>
-      <c r="U148" s="12">
+      <c r="U148" s="13">
         <v>2781319.21</v>
       </c>
       <c r="V148">
@@ -13759,7 +13757,7 @@
       <c r="T149">
         <v>0</v>
       </c>
-      <c r="U149" s="12">
+      <c r="U149" s="13">
         <v>3879519.85</v>
       </c>
       <c r="V149">
